--- a/data/trans_media/Q57-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q57-Estudios-trans_media.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,37</t>
+          <t>7,12; 7,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,53</t>
+          <t>7,16; 7,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,11</t>
+          <t>6,84; 7,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,08</t>
+          <t>6,88; 7,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,23</t>
+          <t>7,03; 7,23</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 7,82</t>
+          <t>7,68; 7,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 8,36</t>
+          <t>8,2; 8,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,7</t>
+          <t>7,56; 7,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 8,16</t>
+          <t>7,89; 8,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,74</t>
+          <t>7,64; 7,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 8,23</t>
+          <t>8,08; 8,24</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,16</t>
+          <t>7,93; 8,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 8,43</t>
+          <t>8,16; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,11</t>
+          <t>7,95; 8,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 8,36</t>
+          <t>8,2; 8,35</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,74</t>
+          <t>7,64; 7,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,92</t>
+          <t>7,77; 7,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">

--- a/data/trans_media/Q57-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q57-Estudios-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,36</t>
+          <t>7,12; 7,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,92</t>
+          <t>6,66; 6,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,08</t>
+          <t>6,89; 7,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 8,16</t>
+          <t>7,94; 8,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 8,11</t>
+          <t>7,89; 8,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
